--- a/biology/Médecine/Virus_de_la_grippe_A_(H5N3)/Virus_de_la_grippe_A_(H5N3).xlsx
+++ b/biology/Médecine/Virus_de_la_grippe_A_(H5N3)/Virus_de_la_grippe_A_(H5N3).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sous-type H5N3 du virus de la grippe A fait référence aux types de deux antigènes présents à la surface du virus : l'hémagglutinine de type 5 et la neuraminidase de type 3. Le virus de la grippe A est un virus à ARN monocaténaire de polarité négative à génome segmenté (8 segments) qui appartient au genre Alphainfluenzavirus de la famille des Orthomyxoviridae. Le sous-type H5N3 provoque des épidémies de grippe aviaire chez les oiseaux, touchant des élevages de volailles dans diverses régions du monde, aussi bien en Asie de l'Est qu'en Europe de l'Ouest et en Amérique du Nord[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sous-type H5N3 du virus de la grippe A fait référence aux types de deux antigènes présents à la surface du virus : l'hémagglutinine de type 5 et la neuraminidase de type 3. Le virus de la grippe A est un virus à ARN monocaténaire de polarité négative à génome segmenté (8 segments) qui appartient au genre Alphainfluenzavirus de la famille des Orthomyxoviridae. Le sous-type H5N3 provoque des épidémies de grippe aviaire chez les oiseaux, touchant des élevages de volailles dans diverses régions du monde, aussi bien en Asie de l'Est qu'en Europe de l'Ouest et en Amérique du Nord,.
 </t>
         </is>
       </c>
